--- a/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
+++ b/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwelter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwelter/Development/HCA/ingest-broker/example-input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,6 @@
     <sheet name="protocols" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="172">
   <si>
     <t>project_id</t>
   </si>
@@ -310,9 +309,6 @@
     <t>E-MTAB-5061.processed.1.zip</t>
   </si>
   <si>
-    <t>SAMEA4437021</t>
-  </si>
-  <si>
     <t>ERS1348470</t>
   </si>
   <si>
@@ -320,9 +316,6 @@
   </si>
   <si>
     <t>AZ_A7</t>
-  </si>
-  <si>
-    <t>SAMEA4437030</t>
   </si>
   <si>
     <t>ERS1348479</t>
@@ -1381,19 +1374,19 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>64</v>
@@ -1436,10 +1429,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1469,7 +1462,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1514,19 +1507,19 @@
   <sheetData>
     <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1567,28 +1560,28 @@
   <sheetData>
     <row r="1" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1612,23 +1605,23 @@
     </row>
     <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1">
         <v>40000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1667,28 +1660,28 @@
   <sheetData>
     <row r="1" spans="1:22" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1707,16 +1700,16 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>77</v>
@@ -1753,19 +1746,19 @@
   <sheetData>
     <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1808,28 +1801,28 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1855,26 +1848,26 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
@@ -1898,26 +1891,26 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="2"/>
@@ -4799,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -4808,50 +4801,50 @@
         <v>4</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6087,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6180,14 +6173,12 @@
       <c r="J2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -6212,7 +6203,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>85</v>
@@ -6230,14 +6221,12 @@
       <c r="J3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -9016,25 +9005,25 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>64</v>
@@ -9074,16 +9063,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>64</v>
@@ -9110,7 +9099,7 @@
         <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -9143,16 +9132,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>

--- a/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
+++ b/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwelter/Development/HCA/ingest-broker/example-input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="15760" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="project" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="project.publications" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="contact.submitter" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="contact.contributors" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="sample.donor" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="sample.specimen_from_organism" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="state_of_specimen" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="sample.cell_suspension" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="cell_suspension.enrichment" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="sample.cell_suspension.well" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="single_cell" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="single_cell.barcode" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="rna" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="seq" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="seq.barcode" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="file" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="protocols" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="project" sheetId="1" r:id="rId1"/>
+    <sheet name="project.publications" sheetId="2" r:id="rId2"/>
+    <sheet name="contact.submitter" sheetId="3" r:id="rId3"/>
+    <sheet name="contact.contributors" sheetId="4" r:id="rId4"/>
+    <sheet name="sample.donor" sheetId="5" r:id="rId5"/>
+    <sheet name="sample.specimen_from_organism" sheetId="6" r:id="rId6"/>
+    <sheet name="state_of_specimen" sheetId="7" r:id="rId7"/>
+    <sheet name="sample.cell_suspension" sheetId="8" r:id="rId8"/>
+    <sheet name="cell_suspension.enrichment" sheetId="9" r:id="rId9"/>
+    <sheet name="sample.cell_suspension.well" sheetId="10" r:id="rId10"/>
+    <sheet name="single_cell" sheetId="11" r:id="rId11"/>
+    <sheet name="single_cell.barcode" sheetId="12" r:id="rId12"/>
+    <sheet name="rna" sheetId="13" r:id="rId13"/>
+    <sheet name="seq" sheetId="14" r:id="rId14"/>
+    <sheet name="seq.barcode" sheetId="15" r:id="rId15"/>
+    <sheet name="file" sheetId="16" r:id="rId16"/>
+    <sheet name="protocols" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,590 +46,562 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="184">
-  <si>
-    <t xml:space="preserve">project_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCA-demo-project 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single-cell RNA-seq analysis of human pancreas from healthy individuals and type 2 diabetes patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We used single-cell RNA-sequencing to generate transcriptional profiles of endocrine and exocrine cell types of the human pancreas. Pancreatic tissue and islets were obtained from six healthy and four T2D cadaveric donors. Islets were cultured and dissociated into single-cell suspension. Viable individual cells were distributed via fluorescence-activated cell sorted (FACS) into 384-well plates containing lysis buffer. Single-cell cDNA libraries were generated using the Smart-seq2 protocol. Gene expression was quantified as reads per kilobase transcript and per million mapped reads (RPKM) using rpkmforgenes. Bioinformatics analysis was used to classify cells into cell types without knowledge of cell types or prior purification of cell populations. We revealed subpopulations in endocrine and exocrine cell types, identified genes with interesting correlations to body mass index (BMI) in specific cell types and found transcriptional alterations in T2D.  Complementary whole-islet RNA-seq data have also been deposited at ArrayExpress under accession number E-MTAB-5060 (http://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-5060).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array_express_investigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experimental_design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell type comparison design||disease state design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experimental_design.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBI_0001411||OBI_0001293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experimental_factor_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo_series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insdc_project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERP017126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insdc_study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRJEB15401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">related_projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplementary_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segerstolpe A, Palasantza A, Eliasson P, Andersson E, Andreasson A, Sun X, Picelli S, Sabirsh A, Clausen M, Bjursell MK, Smith DM, Kasper M, Ammala C, Sandberg R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cmet.2016.08.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single-Cell Transcriptome Profiling of Human Pancreatic Islets in Health and Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country_division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobels vag 3, 171 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockholm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athanasia.Palasantza@ki.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athanasia,,Palasantza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0046 8 5248 3986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rickard.Sandberg@ki.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Ludwig Institute for Cancer Research, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rickard,,Sandberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asa.Segerstolpe@ki.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asa,,Segerstolpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.age_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.alcohol_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.ancestry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.ancestry.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.body_mass_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.development_stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.development_stage.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.disease.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.genotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.is_living</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.life_stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.medication.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.nutritional_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.smoking_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.strain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.strain.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donor.weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genus_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derived_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_accessions.biosd_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_accessions.insdc_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATO_0000461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo sapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_from_organism.body_part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_from_organism.body_part.ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_from_organism.organ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_from_organism.organ.ontololgy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_from_organism.state_of_specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islet of Langerhans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBERON_0000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pancreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBERON_0001264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pancreas islet normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-MTAB-5061.processed.1.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERS1348470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A123||A456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ_A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERS1348479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.autolysis_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.gross_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.gross_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.ischemic_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.microscopic_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.microscopic_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_of_specimen.postmortem_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_suspension.target_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_suspension.enrichment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_suspension.total_estimated_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_suspension.well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample.sample_accessions.insdc_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrichment.markers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrichment.size_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrichment.size_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrichment.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well.col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well.plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well.quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well.row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single_cell.cell_handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assay_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode.read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode.white_list_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.end_bias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.library_construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.library_protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.spike_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.spike_in_dilution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rna.strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smart-seq2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly-dT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.instrument_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.instrument_platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.library_construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.library_protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.local_machine_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.molecule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.paired_ends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiSeq 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polyA RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umi_barcode.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umi_barcode.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umi_barcode.read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umi_barcode.white_list_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.lanes.number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.lanes.run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.insdc_experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq.insdc_run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERR1630013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ_A1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERX1700346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERR1630014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ_A7.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERX1700347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retail_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A protocol to test protocol ingest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencing protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test protocol 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another test protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell suspension protocol</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="181">
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>HCA-demo-project 6</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Single-cell RNA-seq analysis of human pancreas from healthy individuals and type 2 diabetes patients</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>We used single-cell RNA-sequencing to generate transcriptional profiles of endocrine and exocrine cell types of the human pancreas. Pancreatic tissue and islets were obtained from six healthy and four T2D cadaveric donors. Islets were cultured and dissociated into single-cell suspension. Viable individual cells were distributed via fluorescence-activated cell sorted (FACS) into 384-well plates containing lysis buffer. Single-cell cDNA libraries were generated using the Smart-seq2 protocol. Gene expression was quantified as reads per kilobase transcript and per million mapped reads (RPKM) using rpkmforgenes. Bioinformatics analysis was used to classify cells into cell types without knowledge of cell types or prior purification of cell populations. We revealed subpopulations in endocrine and exocrine cell types, identified genes with interesting correlations to body mass index (BMI) in specific cell types and found transcriptional alterations in T2D.  Complementary whole-islet RNA-seq data have also been deposited at ArrayExpress under accession number E-MTAB-5060 (http://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-5060).</t>
+  </si>
+  <si>
+    <t>array_express_investigation</t>
+  </si>
+  <si>
+    <t>experimental_design</t>
+  </si>
+  <si>
+    <t>cell type comparison design||disease state design</t>
+  </si>
+  <si>
+    <t>experimental_design.ontology</t>
+  </si>
+  <si>
+    <t>experimental_factor_name</t>
+  </si>
+  <si>
+    <t>geo_series</t>
+  </si>
+  <si>
+    <t>insdc_project</t>
+  </si>
+  <si>
+    <t>ERP017126</t>
+  </si>
+  <si>
+    <t>insdc_study</t>
+  </si>
+  <si>
+    <t>PRJEB15401</t>
+  </si>
+  <si>
+    <t>related_projects</t>
+  </si>
+  <si>
+    <t>supplementary_files</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>pmid</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Segerstolpe A, Palasantza A, Eliasson P, Andersson E, Andreasson A, Sun X, Picelli S, Sabirsh A, Clausen M, Bjursell MK, Smith DM, Kasper M, Ammala C, Sandberg R</t>
+  </si>
+  <si>
+    <t>10.1016/j.cmet.2016.08.020</t>
+  </si>
+  <si>
+    <t>Single-Cell Transcriptome Profiling of Human Pancreatic Islets in Health and Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country_division</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Nobels vag 3, 171 77</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Athanasia.Palasantza@ki.se</t>
+  </si>
+  <si>
+    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t>Athanasia,,Palasantza</t>
+  </si>
+  <si>
+    <t>0046 8 5248 3986</t>
+  </si>
+  <si>
+    <t>Rickard.Sandberg@ki.se</t>
+  </si>
+  <si>
+    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Ludwig Institute for Cancer Research, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t>Rickard,,Sandberg</t>
+  </si>
+  <si>
+    <t>Asa.Segerstolpe@ki.se</t>
+  </si>
+  <si>
+    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t>Asa,,Segerstolpe</t>
+  </si>
+  <si>
+    <t>donor.age</t>
+  </si>
+  <si>
+    <t>donor.age_unit</t>
+  </si>
+  <si>
+    <t>donor.alcohol_history</t>
+  </si>
+  <si>
+    <t>donor.ancestry</t>
+  </si>
+  <si>
+    <t>donor.ancestry.ontology</t>
+  </si>
+  <si>
+    <t>donor.body_mass_index</t>
+  </si>
+  <si>
+    <t>donor.death</t>
+  </si>
+  <si>
+    <t>donor.development_stage</t>
+  </si>
+  <si>
+    <t>donor.development_stage.ontology</t>
+  </si>
+  <si>
+    <t>donor.disease</t>
+  </si>
+  <si>
+    <t>donor.disease.ontology</t>
+  </si>
+  <si>
+    <t>donor.genotype</t>
+  </si>
+  <si>
+    <t>donor.height</t>
+  </si>
+  <si>
+    <t>donor.is_living</t>
+  </si>
+  <si>
+    <t>donor.life_stage</t>
+  </si>
+  <si>
+    <t>donor.medication</t>
+  </si>
+  <si>
+    <t>donor.medication.ontology</t>
+  </si>
+  <si>
+    <t>donor.nutritional_state</t>
+  </si>
+  <si>
+    <t>donor.sex</t>
+  </si>
+  <si>
+    <t>donor.smoking_history</t>
+  </si>
+  <si>
+    <t>donor.strain</t>
+  </si>
+  <si>
+    <t>donor.strain.ontology</t>
+  </si>
+  <si>
+    <t>donor.weight</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>ncbi_taxon_id</t>
+  </si>
+  <si>
+    <t>genus_species</t>
+  </si>
+  <si>
+    <t>derived_from</t>
+  </si>
+  <si>
+    <t>sample_accessions.biosd_sample</t>
+  </si>
+  <si>
+    <t>sample_accessions.insdc_sample</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.body_part</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.body_part.ontology</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ.ontololgy</t>
+  </si>
+  <si>
+    <t>protocol_ids</t>
+  </si>
+  <si>
+    <t>islet of Langerhans</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>AZ_A1</t>
+  </si>
+  <si>
+    <t>pancreas islet normal</t>
+  </si>
+  <si>
+    <t>E-MTAB-5061.processed.1.zip</t>
+  </si>
+  <si>
+    <t>ERS1348470</t>
+  </si>
+  <si>
+    <t>A123||A456</t>
+  </si>
+  <si>
+    <t>AZ_A7</t>
+  </si>
+  <si>
+    <t>ERS1348479</t>
+  </si>
+  <si>
+    <t>state_of_specimen.autolysis_score</t>
+  </si>
+  <si>
+    <t>state_of_specimen.gross_description</t>
+  </si>
+  <si>
+    <t>state_of_specimen.gross_image</t>
+  </si>
+  <si>
+    <t>state_of_specimen.ischemic_time</t>
+  </si>
+  <si>
+    <t>state_of_specimen.microscopic_description</t>
+  </si>
+  <si>
+    <t>state_of_specimen.microscopic_image</t>
+  </si>
+  <si>
+    <t>state_of_specimen.postmortem_interval</t>
+  </si>
+  <si>
+    <t>cell_suspension.target_cell_type</t>
+  </si>
+  <si>
+    <t>cell_suspension.total_estimated_cells</t>
+  </si>
+  <si>
+    <t>sample.sample_accessions.insdc_sample</t>
+  </si>
+  <si>
+    <t>enrichment.markers</t>
+  </si>
+  <si>
+    <t>nrichment.size_max</t>
+  </si>
+  <si>
+    <t>enrichment.size_min</t>
+  </si>
+  <si>
+    <t>enrichment.type</t>
+  </si>
+  <si>
+    <t>well.col</t>
+  </si>
+  <si>
+    <t>well.name</t>
+  </si>
+  <si>
+    <t>well.plate</t>
+  </si>
+  <si>
+    <t>well.quality</t>
+  </si>
+  <si>
+    <t>well.row</t>
+  </si>
+  <si>
+    <t>single_cell.cell_handling</t>
+  </si>
+  <si>
+    <t>assay_id</t>
+  </si>
+  <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>barcode.offset</t>
+  </si>
+  <si>
+    <t>barcode.size</t>
+  </si>
+  <si>
+    <t>barcode.read</t>
+  </si>
+  <si>
+    <t>barcode.white_list_file</t>
+  </si>
+  <si>
+    <t>rna.end_bias</t>
+  </si>
+  <si>
+    <t>rna.library_construction</t>
+  </si>
+  <si>
+    <t>rna.library_protocol</t>
+  </si>
+  <si>
+    <t>rna.primer</t>
+  </si>
+  <si>
+    <t>rna.spike_in</t>
+  </si>
+  <si>
+    <t>rna.spike_in_dilution</t>
+  </si>
+  <si>
+    <t>rna.strand</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>smart-seq2</t>
+  </si>
+  <si>
+    <t>poly-dT</t>
+  </si>
+  <si>
+    <t>ERCC</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>seq.instrument_model</t>
+  </si>
+  <si>
+    <t>seq.instrument_platform</t>
+  </si>
+  <si>
+    <t>seq.library_construction</t>
+  </si>
+  <si>
+    <t>seq.library_protocol</t>
+  </si>
+  <si>
+    <t>seq.local_machine_name</t>
+  </si>
+  <si>
+    <t>seq.molecule</t>
+  </si>
+  <si>
+    <t>seq.paired_ends</t>
+  </si>
+  <si>
+    <t>HiSeq 2000</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>polyA RNA</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>umi_barcode.offset</t>
+  </si>
+  <si>
+    <t>umi_barcode.size</t>
+  </si>
+  <si>
+    <t>umi_barcode.read</t>
+  </si>
+  <si>
+    <t>umi_barcode.white_list_file</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>file_format</t>
+  </si>
+  <si>
+    <t>seq.lanes.number</t>
+  </si>
+  <si>
+    <t>seq.lanes.run</t>
+  </si>
+  <si>
+    <t>seq.insdc_experiment</t>
+  </si>
+  <si>
+    <t>seq.insdc_run</t>
+  </si>
+  <si>
+    <t>ERR1630013</t>
+  </si>
+  <si>
+    <t>AZ_A1.fastq.gz</t>
+  </si>
+  <si>
+    <t>fastq.gz</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>ERX1700346</t>
+  </si>
+  <si>
+    <t>ERR1630014</t>
+  </si>
+  <si>
+    <t>AZ_A7.fastq.gz</t>
+  </si>
+  <si>
+    <t>ERX1700347</t>
+  </si>
+  <si>
+    <t>protocol_id</t>
+  </si>
+  <si>
+    <t>batch_number</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>retail_name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>Test protocol</t>
+  </si>
+  <si>
+    <t>A protocol to test protocol ingest</t>
+  </si>
+  <si>
+    <t>sequencing protocol</t>
+  </si>
+  <si>
+    <t>A456</t>
+  </si>
+  <si>
+    <t>Test protocol 2</t>
+  </si>
+  <si>
+    <t>Another test protocol</t>
+  </si>
+  <si>
+    <t>cell suspension protocol</t>
+  </si>
+  <si>
+    <t>OBI:0001411||OBI:0001293</t>
+  </si>
+  <si>
+    <t>PATO:0000461</t>
+  </si>
+  <si>
+    <t>UBERON:0000006</t>
+  </si>
+  <si>
+    <t>UBERON:0001264</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -663,7 +645,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -671,105 +653,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -828,29 +745,296 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +1067,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1100,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1133,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1164,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,12 +1197,12 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1046,9 +1230,9 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
@@ -1077,9 +1261,9 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
@@ -1108,12 +1292,12 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1141,12 +1325,12 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1174,9 +1358,9 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
@@ -1205,9 +1389,9 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -1237,50 +1421,37 @@
       <c r="AA12" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1305,38 +1476,25 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1364,9 +1522,9 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1396,47 +1554,34 @@
       <c r="AA2" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1462,56 +1607,43 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1533,25 +1665,25 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="F2" s="1">
         <v>40000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1575,56 +1707,43 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1641,21 +1760,21 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1674,47 +1793,34 @@
       <c r="V2" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1740,56 +1846,45 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1813,28 +1908,28 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
@@ -1856,28 +1951,28 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="2"/>
@@ -1900,35 +1995,24 @@
       <c r="AC3" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
@@ -1937,57 +2021,56 @@
         <v>4</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1995,36 +2078,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2049,16 +2124,16 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -2084,7 +2159,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2113,7 +2188,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -2142,7 +2217,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -2171,7 +2246,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -2200,7 +2275,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2229,7 +2304,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2258,7 +2333,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -2287,7 +2362,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -2317,59 +2392,46 @@
       <c r="AA10" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2390,29 +2452,29 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2434,59 +2496,46 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2506,26 +2555,26 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2546,26 +2595,26 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2586,7 +2635,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2614,7 +2663,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2642,7 +2691,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2670,7 +2719,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2698,7 +2747,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2726,7 +2775,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2754,7 +2803,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2782,7 +2831,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2810,7 +2859,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2839,104 +2888,93 @@
       <c r="Z12" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>2</v>
@@ -2945,74 +2983,74 @@
         <v>4</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="12">
         <v>30.8</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="12">
         <v>9606</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -3020,61 +3058,45 @@
       <c r="AF2" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1295546558704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2226720647773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>89</v>
+      <c r="E1" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>72</v>
@@ -3083,20 +3105,18 @@
         <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="N1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -3109,48 +3129,47 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="1">
+        <v>9606</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="n">
-        <v>9606</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -3163,48 +3182,47 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="1">
+        <v>9606</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="n">
-        <v>9606</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3217,59 +3235,47 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3291,72 +3297,57 @@
       <c r="Z1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -3369,51 +3360,36 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -3439,12 +3415,7 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
+++ b/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwelter/Development/HCA/ingest-broker/example-input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="15760" tabRatio="993" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="project.publications" sheetId="2" r:id="rId2"/>
-    <sheet name="contact.submitter" sheetId="3" r:id="rId3"/>
-    <sheet name="contact.contributors" sheetId="4" r:id="rId4"/>
-    <sheet name="sample.donor" sheetId="5" r:id="rId5"/>
-    <sheet name="sample.specimen_from_organism" sheetId="6" r:id="rId6"/>
-    <sheet name="state_of_specimen" sheetId="7" r:id="rId7"/>
-    <sheet name="sample.cell_suspension" sheetId="8" r:id="rId8"/>
-    <sheet name="cell_suspension.enrichment" sheetId="9" r:id="rId9"/>
-    <sheet name="sample.cell_suspension.well" sheetId="10" r:id="rId10"/>
-    <sheet name="single_cell" sheetId="11" r:id="rId11"/>
-    <sheet name="single_cell.barcode" sheetId="12" r:id="rId12"/>
-    <sheet name="rna" sheetId="13" r:id="rId13"/>
-    <sheet name="seq" sheetId="14" r:id="rId14"/>
-    <sheet name="seq.barcode" sheetId="15" r:id="rId15"/>
-    <sheet name="file" sheetId="16" r:id="rId16"/>
-    <sheet name="protocols" sheetId="17" r:id="rId17"/>
+    <sheet name="project" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="project.publications" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="contact.submitter" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="contact.contributors" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="sample.donor" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="sample.donor.death" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="sample.specimen_from_organism" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="state_of_specimen" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="sample.cell_suspension" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="cell_suspension.enrichment" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="sample.cell_suspension.well" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="single_cell" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="single_cell.barcode" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="rna" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="seq" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="seq.barcode" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="file" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="protocols" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -46,562 +37,606 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="181">
-  <si>
-    <t>project_id</t>
-  </si>
-  <si>
-    <t>HCA-demo-project 6</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Single-cell RNA-seq analysis of human pancreas from healthy individuals and type 2 diabetes patients</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>We used single-cell RNA-sequencing to generate transcriptional profiles of endocrine and exocrine cell types of the human pancreas. Pancreatic tissue and islets were obtained from six healthy and four T2D cadaveric donors. Islets were cultured and dissociated into single-cell suspension. Viable individual cells were distributed via fluorescence-activated cell sorted (FACS) into 384-well plates containing lysis buffer. Single-cell cDNA libraries were generated using the Smart-seq2 protocol. Gene expression was quantified as reads per kilobase transcript and per million mapped reads (RPKM) using rpkmforgenes. Bioinformatics analysis was used to classify cells into cell types without knowledge of cell types or prior purification of cell populations. We revealed subpopulations in endocrine and exocrine cell types, identified genes with interesting correlations to body mass index (BMI) in specific cell types and found transcriptional alterations in T2D.  Complementary whole-islet RNA-seq data have also been deposited at ArrayExpress under accession number E-MTAB-5060 (http://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-5060).</t>
-  </si>
-  <si>
-    <t>array_express_investigation</t>
-  </si>
-  <si>
-    <t>experimental_design</t>
-  </si>
-  <si>
-    <t>cell type comparison design||disease state design</t>
-  </si>
-  <si>
-    <t>experimental_design.ontology</t>
-  </si>
-  <si>
-    <t>experimental_factor_name</t>
-  </si>
-  <si>
-    <t>geo_series</t>
-  </si>
-  <si>
-    <t>insdc_project</t>
-  </si>
-  <si>
-    <t>ERP017126</t>
-  </si>
-  <si>
-    <t>insdc_study</t>
-  </si>
-  <si>
-    <t>PRJEB15401</t>
-  </si>
-  <si>
-    <t>related_projects</t>
-  </si>
-  <si>
-    <t>supplementary_files</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>pmid</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>Segerstolpe A, Palasantza A, Eliasson P, Andersson E, Andreasson A, Sun X, Picelli S, Sabirsh A, Clausen M, Bjursell MK, Smith DM, Kasper M, Ammala C, Sandberg R</t>
-  </si>
-  <si>
-    <t>10.1016/j.cmet.2016.08.020</t>
-  </si>
-  <si>
-    <t>Single-Cell Transcriptome Profiling of Human Pancreatic Islets in Health and Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>country_division</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>laboratory</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Nobels vag 3, 171 77</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Athanasia.Palasantza@ki.se</t>
-  </si>
-  <si>
-    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t>Athanasia,,Palasantza</t>
-  </si>
-  <si>
-    <t>0046 8 5248 3986</t>
-  </si>
-  <si>
-    <t>Rickard.Sandberg@ki.se</t>
-  </si>
-  <si>
-    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Ludwig Institute for Cancer Research, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t>Rickard,,Sandberg</t>
-  </si>
-  <si>
-    <t>Asa.Segerstolpe@ki.se</t>
-  </si>
-  <si>
-    <t>Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
-  </si>
-  <si>
-    <t>Asa,,Segerstolpe</t>
-  </si>
-  <si>
-    <t>donor.age</t>
-  </si>
-  <si>
-    <t>donor.age_unit</t>
-  </si>
-  <si>
-    <t>donor.alcohol_history</t>
-  </si>
-  <si>
-    <t>donor.ancestry</t>
-  </si>
-  <si>
-    <t>donor.ancestry.ontology</t>
-  </si>
-  <si>
-    <t>donor.body_mass_index</t>
-  </si>
-  <si>
-    <t>donor.death</t>
-  </si>
-  <si>
-    <t>donor.development_stage</t>
-  </si>
-  <si>
-    <t>donor.development_stage.ontology</t>
-  </si>
-  <si>
-    <t>donor.disease</t>
-  </si>
-  <si>
-    <t>donor.disease.ontology</t>
-  </si>
-  <si>
-    <t>donor.genotype</t>
-  </si>
-  <si>
-    <t>donor.height</t>
-  </si>
-  <si>
-    <t>donor.is_living</t>
-  </si>
-  <si>
-    <t>donor.life_stage</t>
-  </si>
-  <si>
-    <t>donor.medication</t>
-  </si>
-  <si>
-    <t>donor.medication.ontology</t>
-  </si>
-  <si>
-    <t>donor.nutritional_state</t>
-  </si>
-  <si>
-    <t>donor.sex</t>
-  </si>
-  <si>
-    <t>donor.smoking_history</t>
-  </si>
-  <si>
-    <t>donor.strain</t>
-  </si>
-  <si>
-    <t>donor.strain.ontology</t>
-  </si>
-  <si>
-    <t>donor.weight</t>
-  </si>
-  <si>
-    <t>sample_id</t>
-  </si>
-  <si>
-    <t>ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t>genus_species</t>
-  </si>
-  <si>
-    <t>derived_from</t>
-  </si>
-  <si>
-    <t>sample_accessions.biosd_sample</t>
-  </si>
-  <si>
-    <t>sample_accessions.insdc_sample</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.body_part</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.body_part.ontology</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ.ontololgy</t>
-  </si>
-  <si>
-    <t>protocol_ids</t>
-  </si>
-  <si>
-    <t>islet of Langerhans</t>
-  </si>
-  <si>
-    <t>pancreas</t>
-  </si>
-  <si>
-    <t>AZ_A1</t>
-  </si>
-  <si>
-    <t>pancreas islet normal</t>
-  </si>
-  <si>
-    <t>E-MTAB-5061.processed.1.zip</t>
-  </si>
-  <si>
-    <t>ERS1348470</t>
-  </si>
-  <si>
-    <t>A123||A456</t>
-  </si>
-  <si>
-    <t>AZ_A7</t>
-  </si>
-  <si>
-    <t>ERS1348479</t>
-  </si>
-  <si>
-    <t>state_of_specimen.autolysis_score</t>
-  </si>
-  <si>
-    <t>state_of_specimen.gross_description</t>
-  </si>
-  <si>
-    <t>state_of_specimen.gross_image</t>
-  </si>
-  <si>
-    <t>state_of_specimen.ischemic_time</t>
-  </si>
-  <si>
-    <t>state_of_specimen.microscopic_description</t>
-  </si>
-  <si>
-    <t>state_of_specimen.microscopic_image</t>
-  </si>
-  <si>
-    <t>state_of_specimen.postmortem_interval</t>
-  </si>
-  <si>
-    <t>cell_suspension.target_cell_type</t>
-  </si>
-  <si>
-    <t>cell_suspension.total_estimated_cells</t>
-  </si>
-  <si>
-    <t>sample.sample_accessions.insdc_sample</t>
-  </si>
-  <si>
-    <t>enrichment.markers</t>
-  </si>
-  <si>
-    <t>nrichment.size_max</t>
-  </si>
-  <si>
-    <t>enrichment.size_min</t>
-  </si>
-  <si>
-    <t>enrichment.type</t>
-  </si>
-  <si>
-    <t>well.col</t>
-  </si>
-  <si>
-    <t>well.name</t>
-  </si>
-  <si>
-    <t>well.plate</t>
-  </si>
-  <si>
-    <t>well.quality</t>
-  </si>
-  <si>
-    <t>well.row</t>
-  </si>
-  <si>
-    <t>single_cell.cell_handling</t>
-  </si>
-  <si>
-    <t>assay_id</t>
-  </si>
-  <si>
-    <t>FACS</t>
-  </si>
-  <si>
-    <t>barcode.offset</t>
-  </si>
-  <si>
-    <t>barcode.size</t>
-  </si>
-  <si>
-    <t>barcode.read</t>
-  </si>
-  <si>
-    <t>barcode.white_list_file</t>
-  </si>
-  <si>
-    <t>rna.end_bias</t>
-  </si>
-  <si>
-    <t>rna.library_construction</t>
-  </si>
-  <si>
-    <t>rna.library_protocol</t>
-  </si>
-  <si>
-    <t>rna.primer</t>
-  </si>
-  <si>
-    <t>rna.spike_in</t>
-  </si>
-  <si>
-    <t>rna.spike_in_dilution</t>
-  </si>
-  <si>
-    <t>rna.strand</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>smart-seq2</t>
-  </si>
-  <si>
-    <t>poly-dT</t>
-  </si>
-  <si>
-    <t>ERCC</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>seq.instrument_model</t>
-  </si>
-  <si>
-    <t>seq.instrument_platform</t>
-  </si>
-  <si>
-    <t>seq.library_construction</t>
-  </si>
-  <si>
-    <t>seq.library_protocol</t>
-  </si>
-  <si>
-    <t>seq.local_machine_name</t>
-  </si>
-  <si>
-    <t>seq.molecule</t>
-  </si>
-  <si>
-    <t>seq.paired_ends</t>
-  </si>
-  <si>
-    <t>HiSeq 2000</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>polyA RNA</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>umi_barcode.offset</t>
-  </si>
-  <si>
-    <t>umi_barcode.size</t>
-  </si>
-  <si>
-    <t>umi_barcode.read</t>
-  </si>
-  <si>
-    <t>umi_barcode.white_list_file</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>file_format</t>
-  </si>
-  <si>
-    <t>seq.lanes.number</t>
-  </si>
-  <si>
-    <t>seq.lanes.run</t>
-  </si>
-  <si>
-    <t>seq.insdc_experiment</t>
-  </si>
-  <si>
-    <t>seq.insdc_run</t>
-  </si>
-  <si>
-    <t>ERR1630013</t>
-  </si>
-  <si>
-    <t>AZ_A1.fastq.gz</t>
-  </si>
-  <si>
-    <t>fastq.gz</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>ERX1700346</t>
-  </si>
-  <si>
-    <t>ERR1630014</t>
-  </si>
-  <si>
-    <t>AZ_A7.fastq.gz</t>
-  </si>
-  <si>
-    <t>ERX1700347</t>
-  </si>
-  <si>
-    <t>protocol_id</t>
-  </si>
-  <si>
-    <t>batch_number</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>retail_name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>Test protocol</t>
-  </si>
-  <si>
-    <t>A protocol to test protocol ingest</t>
-  </si>
-  <si>
-    <t>sequencing protocol</t>
-  </si>
-  <si>
-    <t>A456</t>
-  </si>
-  <si>
-    <t>Test protocol 2</t>
-  </si>
-  <si>
-    <t>Another test protocol</t>
-  </si>
-  <si>
-    <t>cell suspension protocol</t>
-  </si>
-  <si>
-    <t>OBI:0001411||OBI:0001293</t>
-  </si>
-  <si>
-    <t>PATO:0000461</t>
-  </si>
-  <si>
-    <t>UBERON:0000006</t>
-  </si>
-  <si>
-    <t>UBERON:0001264</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="189">
+  <si>
+    <t xml:space="preserve">project_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCA-demo-project 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-cell RNA-seq analysis of human pancreas from healthy individuals and type 2 diabetes patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used single-cell RNA-sequencing to generate transcriptional profiles of endocrine and exocrine cell types of the human pancreas. Pancreatic tissue and islets were obtained from six healthy and four T2D cadaveric donors. Islets were cultured and dissociated into single-cell suspension. Viable individual cells were distributed via fluorescence-activated cell sorted (FACS) into 384-well plates containing lysis buffer. Single-cell cDNA libraries were generated using the Smart-seq2 protocol. Gene expression was quantified as reads per kilobase transcript and per million mapped reads (RPKM) using rpkmforgenes. Bioinformatics analysis was used to classify cells into cell types without knowledge of cell types or prior purification of cell populations. We revealed subpopulations in endocrine and exocrine cell types, identified genes with interesting correlations to body mass index (BMI) in specific cell types and found transcriptional alterations in T2D.  Complementary whole-islet RNA-seq data have also been deposited at ArrayExpress under accession number E-MTAB-5060 (http://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-5060).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array_express_investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experimental_design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell type comparison design||disease state design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experimental_design.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBI:0001411||OBI:0001293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experimental_factor_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo_series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insdc_project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP017126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insdc_study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRJEB15401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related_projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplementary_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segerstolpe A, Palasantza A, Eliasson P, Andersson E, Andreasson A, Sun X, Picelli S, Sabirsh A, Clausen M, Bjursell MK, Smith DM, Kasper M, Ammala C, Sandberg R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cmet.2016.08.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Cell Transcriptome Profiling of Human Pancreatic Islets in Health and Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobels vag 3, 171 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athanasia.Palasantza@ki.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athanasia,,Palasantza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0046 8 5248 3986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rickard.Sandberg@ki.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Ludwig Institute for Cancer Research, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rickard,,Sandberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asa.Segerstolpe@ki.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Cell and Molecular Biology (CMB), Karolinska Institutet, Stockholm, Sweden. Integrated Cardiometabolic Center (ICMC), Karolinska Institutet, Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asa,,Segerstolpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.age_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.alcohol_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.ancestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.ancestry.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.body_mass_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.development_stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.development_stage.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.disease.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.is_living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.life_stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.medication.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.nutritional_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.smoking_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.strain.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donor.weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncbi_taxon_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genus_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derived_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_accessions.biosd_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_accessions.insdc_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATO:0000461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo sapiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.cause_of_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.cause_of_death.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.cold_perfused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.days_on_ventilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.hardy_scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death.time_of_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death by natural cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCIt:C82465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_from_organism.body_part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_from_organism.body_part.ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_from_organism.organ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_from_organism.organ.ontololgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islet of Langerhans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBERON:0000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pancreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBERON:0001264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pancreas islet normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-MTAB-5061.processed.1.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERS1348470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A123||A456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ_A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERS1348479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.autolysis_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.gross_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.gross_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.ischemic_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.microscopic_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.microscopic_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_of_specimen.postmortem_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_suspension.target_cell_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_suspension.total_estimated_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample.sample_accessions.insdc_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrichment.markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrichment.size_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrichment.size_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrichment.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well.col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well.plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well.quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well.row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_cell.cell_handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assay_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode.read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode.white_list_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.end_bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.library_construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.library_protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.spike_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.spike_in_dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rna.strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smart-seq2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly-dT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.instrument_model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.instrument_platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.library_construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.library_protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.local_machine_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.molecule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.paired_ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiSeq 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyA RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umi_barcode.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umi_barcode.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umi_barcode.read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umi_barcode.white_list_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.lanes.number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.lanes.run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.insdc_experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.insdc_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR1630013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ_A1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERX1700346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR1630014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ_A7.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERX1700347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retail_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A protocol to test protocol ingest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequencing protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test protocol 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another test protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell suspension protocol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY\ HH:MM"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -645,7 +680,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -653,40 +688,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="17">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -745,296 +849,28 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +903,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +936,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +969,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1000,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1197,12 +1033,12 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1230,9 +1066,9 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
@@ -1261,9 +1097,9 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
@@ -1292,12 +1128,12 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1325,12 +1161,12 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1358,9 +1194,9 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
@@ -1389,9 +1225,9 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -1421,38 +1257,49 @@
       <c r="AA12" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1476,25 +1323,106 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1522,9 +1450,9 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1554,34 +1482,47 @@
       <c r="AA2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1607,43 +1548,56 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1665,25 +1619,25 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>131</v>
+        <v>142</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="1">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>40000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1707,43 +1661,56 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="43" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1760,21 +1727,21 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1793,34 +1760,47 @@
       <c r="V2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1846,45 +1826,56 @@
       <c r="AA1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1908,28 +1899,28 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
@@ -1951,28 +1942,28 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="2"/>
@@ -1995,82 +1986,94 @@
       <c r="AC3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>176</v>
+      <c r="D1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2078,28 +2081,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2124,16 +2135,16 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -2159,7 +2170,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -2188,7 +2199,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -2217,7 +2228,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -2246,7 +2257,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -2275,7 +2286,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2304,7 +2315,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2333,7 +2344,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -2362,7 +2373,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -2392,46 +2403,59 @@
       <c r="AA10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2452,29 +2476,29 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2496,46 +2520,59 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2555,26 +2592,26 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2595,26 +2632,26 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2635,7 +2672,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2663,7 +2700,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -2691,7 +2728,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2719,7 +2756,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2747,7 +2784,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2775,7 +2812,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2803,7 +2840,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2831,7 +2868,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2859,7 +2896,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2888,93 +2925,104 @@
       <c r="Z12" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>2</v>
@@ -2983,74 +3031,74 @@
         <v>4</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="12">
+      <c r="F2" s="12" t="n">
         <v>30.8</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="12">
+      <c r="AA2" s="12" t="n">
         <v>9606</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -3058,36 +3106,116 @@
       <c r="AF2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>43069.4305555556</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -3096,25 +3224,25 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -3130,44 +3258,44 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>9606</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3183,44 +3311,44 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="n">
         <v>9606</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3237,45 +3365,56 @@
       <c r="AA3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3297,30 +3436,41 @@
       <c r="Z1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -3329,22 +3479,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -3362,60 +3512,12 @@
       <c r="Y1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
+++ b/example-input/v4_E-MTAB-5061-xtrasmall.xlsx
@@ -3124,17 +3124,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8744939271255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>43069.4305555556</v>
+        <v>43044.4305555556</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>83</v>
